--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -4,20 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$A$2:$AP$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$A$2:$AX$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>广航局项目信息清单</t>
   </si>
@@ -31,6 +44,9 @@
     <t>项目类型</t>
   </si>
   <si>
+    <t>有效合同额</t>
+  </si>
+  <si>
     <t>合同总价</t>
   </si>
   <si>
@@ -58,9 +74,6 @@
     <t>施工区域</t>
   </si>
   <si>
-    <t>有效合同额</t>
-  </si>
-  <si>
     <t>合同约定的计量支付百分比(%)</t>
   </si>
   <si>
@@ -76,7 +89,7 @@
     <t>合同工程量</t>
   </si>
   <si>
-    <t>合同工程量说明</t>
+    <t>项目内容</t>
   </si>
   <si>
     <t>项目主数据编码</t>
@@ -130,6 +143,30 @@
     <t>报表负责人联系方式</t>
   </si>
   <si>
+    <t>业主</t>
+  </si>
+  <si>
+    <t>监理单位</t>
+  </si>
+  <si>
+    <t>设计单位</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>项目书记</t>
+  </si>
+  <si>
+    <t>项目总工</t>
+  </si>
+  <si>
+    <t>安全总监</t>
+  </si>
+  <si>
+    <t>现场主要负责人</t>
+  </si>
+  <si>
     <t>工期信息</t>
   </si>
   <si>
@@ -157,6 +194,9 @@
     <t>{{projectExcelData.TypeName}}</t>
   </si>
   <si>
+    <t>{{projectExcelData.Ecamount}}</t>
+  </si>
+  <si>
     <t>{{projectExcelData.Amount}}</t>
   </si>
   <si>
@@ -184,9 +224,6 @@
     <t>{{projectExcelData.RegionName}}</t>
   </si>
   <si>
-    <t>{{projectExcelData.Ecamount}}</t>
-  </si>
-  <si>
     <t>{{projectExcelData.ContractmeapayProp}}</t>
   </si>
   <si>
@@ -254,6 +291,30 @@
   </si>
   <si>
     <t>{{projectExcelData.ReportformerTel}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.YeZhuUnitName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.JianLiUnitName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.SheJiUnitName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.XmJlName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.XmSjName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.XmZgName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.XmZjName}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.XmZyFerName}}</t>
   </si>
   <si>
     <t>{{projectExcelData.DurationInformation}}</t>
@@ -277,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -319,55 +380,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,6 +437,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -457,7 +497,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,49 +539,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,121 +677,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,21 +744,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +777,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,148 +848,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -949,52 +1010,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1265,28 +1326,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="9" width="30" style="1" customWidth="1"/>
-    <col min="10" max="10" width="43" style="1" customWidth="1"/>
-    <col min="11" max="27" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="9" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="43" style="1" customWidth="1"/>
+    <col min="12" max="27" width="30" style="1" customWidth="1"/>
     <col min="28" max="28" width="50" style="1" customWidth="1"/>
-    <col min="29" max="36" width="30" style="1" customWidth="1"/>
-    <col min="37" max="37" width="24" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="39" max="40" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="41" max="42" width="30.7142857142857" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="10.2857142857143" style="1"/>
+    <col min="29" max="35" width="30" style="1" customWidth="1"/>
+    <col min="36" max="36" width="44.7142857142857" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.2857142857143" style="1" customWidth="1"/>
+    <col min="38" max="38" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="39" max="39" width="41.4285714285714" style="1" customWidth="1"/>
+    <col min="40" max="40" width="34.8571428571429" style="1" customWidth="1"/>
+    <col min="41" max="41" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="42" max="42" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="43" max="43" width="41.5714285714286" style="1" customWidth="1"/>
+    <col min="44" max="45" width="24" style="1" customWidth="1"/>
+    <col min="46" max="46" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="47" max="48" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="49" max="50" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:36">
@@ -1329,7 +1401,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:50">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1444,10 +1516,10 @@
       <c r="AL2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AO2" s="4" t="s">
@@ -1456,137 +1528,185 @@
       <c r="AP2" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AQ2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:42">
+    <row r="3" s="1" customFormat="1" spans="1:50">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AP3">
+  <autoFilter ref="A2:AX3">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
@@ -1328,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AR3" sqref="AR3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>项目类型</t>
   </si>
   <si>
-    <t>有效合同额</t>
+    <t>实际合同额</t>
   </si>
   <si>
     <t>合同总价</t>
@@ -1329,7 +1329,7 @@
   <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1706,7 +1706,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AX3">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AX3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$A$2:$AX$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AX$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +35,9 @@
     <t>广航局项目信息清单</t>
   </si>
   <si>
+    <t>项目主数据编码</t>
+  </si>
+  <si>
     <t>项目名称</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
     <t>项目内容</t>
   </si>
   <si>
-    <t>项目主数据编码</t>
-  </si>
-  <si>
     <t>经度</t>
   </si>
   <si>
@@ -185,6 +185,9 @@
     <t>停工原因</t>
   </si>
   <si>
+    <t>{{projectExcelData.MasterCode}}</t>
+  </si>
+  <si>
     <t>{{projectExcelData.Name}}</t>
   </si>
   <si>
@@ -240,9 +243,6 @@
   </si>
   <si>
     <t>{{projectExcelData.QuantityRemarks}}</t>
-  </si>
-  <si>
-    <t>{{projectExcelData.MasterCode}}</t>
   </si>
   <si>
     <t>{{projectExcelData.Longitude}}</t>
@@ -1328,22 +1328,23 @@
   <sheetPr/>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5714285714286" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="9" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43" style="1" customWidth="1"/>
-    <col min="12" max="27" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="10" max="11" width="30" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43" style="1" customWidth="1"/>
+    <col min="13" max="27" width="30" style="1" customWidth="1"/>
     <col min="28" max="28" width="50" style="1" customWidth="1"/>
     <col min="29" max="35" width="30" style="1" customWidth="1"/>
     <col min="36" max="36" width="44.7142857142857" style="1" customWidth="1"/>
@@ -1361,11 +1362,10 @@
     <col min="51" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:36">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="22" customHeight="1" spans="2:36">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1706,11 +1706,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:AX3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AX3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="B1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AX$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AZ$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>广航局项目信息清单</t>
   </si>
@@ -41,6 +41,12 @@
     <t>项目名称</t>
   </si>
   <si>
+    <t>所属项目部</t>
+  </si>
+  <si>
+    <t>管理类型</t>
+  </si>
+  <si>
     <t>项目类别</t>
   </si>
   <si>
@@ -189,6 +195,12 @@
   </si>
   <si>
     <t>{{projectExcelData.Name}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.ProjectDept}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.ManagerTypeName}}</t>
   </si>
   <si>
     <t>{{projectExcelData.CategoryName}}</t>
@@ -1326,43 +1338,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="40.4285714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="10" max="11" width="30" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43" style="1" customWidth="1"/>
-    <col min="13" max="27" width="30" style="1" customWidth="1"/>
-    <col min="28" max="28" width="50" style="1" customWidth="1"/>
-    <col min="29" max="35" width="30" style="1" customWidth="1"/>
-    <col min="36" max="36" width="44.7142857142857" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.2857142857143" style="1" customWidth="1"/>
-    <col min="38" max="38" width="40.1428571428571" style="1" customWidth="1"/>
-    <col min="39" max="39" width="41.4285714285714" style="1" customWidth="1"/>
-    <col min="40" max="40" width="34.8571428571429" style="1" customWidth="1"/>
-    <col min="41" max="41" width="33.4285714285714" style="1" customWidth="1"/>
-    <col min="42" max="42" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="43" max="43" width="41.5714285714286" style="1" customWidth="1"/>
-    <col min="44" max="45" width="24" style="1" customWidth="1"/>
-    <col min="46" max="46" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="47" max="48" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="49" max="50" width="30.7142857142857" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="10.2857142857143" style="1"/>
+    <col min="2" max="4" width="50" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="9" width="30" style="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="12" max="13" width="30" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43" style="1" customWidth="1"/>
+    <col min="15" max="29" width="30" style="1" customWidth="1"/>
+    <col min="30" max="30" width="50" style="1" customWidth="1"/>
+    <col min="31" max="37" width="30" style="1" customWidth="1"/>
+    <col min="38" max="38" width="44.7142857142857" style="1" customWidth="1"/>
+    <col min="39" max="39" width="42.2857142857143" style="1" customWidth="1"/>
+    <col min="40" max="40" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="41" max="41" width="41.4285714285714" style="1" customWidth="1"/>
+    <col min="42" max="42" width="34.8571428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="44" max="44" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="45" max="45" width="41.5714285714286" style="1" customWidth="1"/>
+    <col min="46" max="47" width="24" style="1" customWidth="1"/>
+    <col min="48" max="48" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="49" max="50" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="51" max="52" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="2:36">
+    <row r="1" ht="22" customHeight="1" spans="2:38">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1400,8 +1412,10 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:52">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1540,177 +1554,189 @@
       <c r="AT2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="AY2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:50">
+    <row r="3" s="1" customFormat="1" spans="1:52">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL3" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="AK3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AM3" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AX3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AZ3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:AJ1"/>
+    <mergeCell ref="B1:AL1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -179,7 +179,10 @@
     <t>开工日期</t>
   </si>
   <si>
-    <t>停工日期</t>
+    <t>新停工日期</t>
+  </si>
+  <si>
+    <t>停工原因</t>
   </si>
   <si>
     <t>中标日期</t>
@@ -188,9 +191,6 @@
     <t>工程位置</t>
   </si>
   <si>
-    <t>停工原因</t>
-  </si>
-  <si>
     <t>{{projectExcelData.MasterCode}}</t>
   </si>
   <si>
@@ -338,13 +338,13 @@
     <t>{{projectExcelData.ShutdownDate}}</t>
   </si>
   <si>
+    <t>{{projectExcelData.ShutDownReason}}</t>
+  </si>
+  <si>
     <t>{{projectExcelData.BidWinningDate}}</t>
   </si>
   <si>
     <t>{{projectExcelData.ProjectLocation}}</t>
-  </si>
-  <si>
-    <t>{{projectExcelData.ShutDownReason}}</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1369,8 +1369,9 @@
     <col min="45" max="45" width="41.5714285714286" style="1" customWidth="1"/>
     <col min="46" max="47" width="24" style="1" customWidth="1"/>
     <col min="48" max="48" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="49" max="50" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="51" max="52" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="49" max="49" width="37.4285714285714" style="2" customWidth="1"/>
+    <col min="50" max="51" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="52" max="52" width="30.7142857142857" style="1" customWidth="1"/>
     <col min="53" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
@@ -1566,7 +1567,7 @@
       <c r="AX2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="AZ2" s="4" t="s">
@@ -1724,7 +1725,7 @@
       <c r="AX3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AY3" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AZ3" s="1" t="s">

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AZ$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AX$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>广航局项目信息清单</t>
   </si>
@@ -110,12 +110,6 @@
     <t>是否完成编制</t>
   </si>
   <si>
-    <t>完工工程量</t>
-  </si>
-  <si>
-    <t>完工产值</t>
-  </si>
-  <si>
     <t>标后预算毛利率</t>
   </si>
   <si>
@@ -264,12 +258,6 @@
   </si>
   <si>
     <t>{{projectExcelData.IsStrength}}</t>
-  </si>
-  <si>
-    <t>{{projectExcelData.CompleteQuantity}}</t>
-  </si>
-  <si>
-    <t>{{projectExcelData.CompleteOutput}}</t>
   </si>
   <si>
     <t>{{projectExcelData.BudgetInterestRate}}</t>
@@ -1338,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1356,26 +1344,26 @@
     <col min="11" max="11" width="39.1428571428571" style="1" customWidth="1"/>
     <col min="12" max="13" width="30" style="1" customWidth="1"/>
     <col min="14" max="14" width="43" style="1" customWidth="1"/>
-    <col min="15" max="29" width="30" style="1" customWidth="1"/>
-    <col min="30" max="30" width="50" style="1" customWidth="1"/>
-    <col min="31" max="37" width="30" style="1" customWidth="1"/>
-    <col min="38" max="38" width="44.7142857142857" style="1" customWidth="1"/>
-    <col min="39" max="39" width="42.2857142857143" style="1" customWidth="1"/>
-    <col min="40" max="40" width="40.1428571428571" style="1" customWidth="1"/>
-    <col min="41" max="41" width="41.4285714285714" style="1" customWidth="1"/>
-    <col min="42" max="42" width="34.8571428571429" style="1" customWidth="1"/>
-    <col min="43" max="43" width="33.4285714285714" style="1" customWidth="1"/>
-    <col min="44" max="44" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="45" max="45" width="41.5714285714286" style="1" customWidth="1"/>
-    <col min="46" max="47" width="24" style="1" customWidth="1"/>
-    <col min="48" max="48" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="49" max="49" width="37.4285714285714" style="2" customWidth="1"/>
-    <col min="50" max="51" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="52" max="52" width="30.7142857142857" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="10.2857142857143" style="1"/>
+    <col min="15" max="27" width="30" style="1" customWidth="1"/>
+    <col min="28" max="28" width="50" style="1" customWidth="1"/>
+    <col min="29" max="35" width="30" style="1" customWidth="1"/>
+    <col min="36" max="36" width="44.7142857142857" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.2857142857143" style="1" customWidth="1"/>
+    <col min="38" max="38" width="40.1428571428571" style="1" customWidth="1"/>
+    <col min="39" max="39" width="41.4285714285714" style="1" customWidth="1"/>
+    <col min="40" max="40" width="34.8571428571429" style="1" customWidth="1"/>
+    <col min="41" max="41" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="42" max="42" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="43" max="43" width="41.5714285714286" style="1" customWidth="1"/>
+    <col min="44" max="45" width="24" style="1" customWidth="1"/>
+    <col min="46" max="46" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="47" max="47" width="37.4285714285714" style="2" customWidth="1"/>
+    <col min="48" max="49" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="50" max="50" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="51" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="2:38">
+    <row r="1" ht="22" customHeight="1" spans="2:36">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1413,10 +1401,8 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:50">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1555,189 +1541,177 @@
       <c r="AT2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="6" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:50">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:52">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AE3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AG3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AI3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AK3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AL3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AM3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AN3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AU3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AV3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AW3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AZ3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AX3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:AL1"/>
+    <mergeCell ref="B1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
+++ b/GHMonitoringCenterApi.Domain.Shared/Template/Excel/ProjectTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="广航局项目信息清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$AX$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">广航局项目信息清单!$B$2:$BA$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>广航局项目信息清单</t>
   </si>
@@ -170,7 +170,13 @@
     <t>工期信息</t>
   </si>
   <si>
-    <t>开工日期</t>
+    <t>中标日期</t>
+  </si>
+  <si>
+    <t>合同约定开工日期</t>
+  </si>
+  <si>
+    <t>实际开工日期</t>
   </si>
   <si>
     <t>新停工日期</t>
@@ -179,7 +185,10 @@
     <t>停工原因</t>
   </si>
   <si>
-    <t>中标日期</t>
+    <t>合同约定完工日期</t>
+  </si>
+  <si>
+    <t>实际完工日期</t>
   </si>
   <si>
     <t>工程位置</t>
@@ -320,6 +329,12 @@
     <t>{{projectExcelData.DurationInformation}}</t>
   </si>
   <si>
+    <t>{{projectExcelData.BidWinningDate}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.ContractStipulationStartDate}}</t>
+  </si>
+  <si>
     <t>{{projectExcelData.CommencementTime}}</t>
   </si>
   <si>
@@ -329,7 +344,10 @@
     <t>{{projectExcelData.ShutDownReason}}</t>
   </si>
   <si>
-    <t>{{projectExcelData.BidWinningDate}}</t>
+    <t>{{projectExcelData.ContractStipulationEndDate}}</t>
+  </si>
+  <si>
+    <t>{{projectExcelData.CompletionTime}}</t>
   </si>
   <si>
     <t>{{projectExcelData.ProjectLocation}}</t>
@@ -993,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1004,8 +1022,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1326,10 +1350,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AX3"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1355,12 +1379,15 @@
     <col min="41" max="41" width="33.4285714285714" style="1" customWidth="1"/>
     <col min="42" max="42" width="39.1428571428571" style="1" customWidth="1"/>
     <col min="43" max="43" width="41.5714285714286" style="1" customWidth="1"/>
-    <col min="44" max="45" width="24" style="1" customWidth="1"/>
-    <col min="46" max="46" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="47" max="47" width="37.4285714285714" style="2" customWidth="1"/>
-    <col min="48" max="49" width="30.7142857142857" style="2" customWidth="1"/>
-    <col min="50" max="50" width="30.7142857142857" style="1" customWidth="1"/>
-    <col min="51" max="16384" width="10.2857142857143" style="1"/>
+    <col min="44" max="46" width="24" style="1" customWidth="1"/>
+    <col min="47" max="47" width="30.2857142857143" style="1" customWidth="1"/>
+    <col min="48" max="48" width="27.2857142857143" style="1" customWidth="1"/>
+    <col min="49" max="49" width="37.4285714285714" style="2" customWidth="1"/>
+    <col min="50" max="50" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="51" max="51" width="46.5714285714286" style="2" customWidth="1"/>
+    <col min="52" max="52" width="30.7142857142857" style="2" customWidth="1"/>
+    <col min="53" max="53" width="30.7142857142857" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="10.2857142857143" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="2:36">
@@ -1402,7 +1429,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:53">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1565,7 @@
       <c r="AS2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AU2" s="6" t="s">
@@ -1547,167 +1574,185 @@
       <c r="AV2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="AY2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:50">
+    <row r="3" s="1" customFormat="1" spans="1:53">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:AX3" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B2:BA3" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
